--- a/biology/Médecine/Néphropathie_associée_au_VIH/Néphropathie_associée_au_VIH.xlsx
+++ b/biology/Médecine/Néphropathie_associée_au_VIH/Néphropathie_associée_au_VIH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9phropathie_associ%C3%A9e_au_VIH</t>
+          <t>Néphropathie_associée_au_VIH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La néphropathie associée au VIH plus connue sous le nom de HIVAN (HIV-associated nephropathy) est un syndrome glomérulaire secondaire à l'infection au VIH. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9phropathie_associ%C3%A9e_au_VIH</t>
+          <t>Néphropathie_associée_au_VIH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est décrite pour la première fois en 1984 dans The New England Journal of Medicine par T.K. Sreepada Rao[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est décrite pour la première fois en 1984 dans The New England Journal of Medicine par T.K. Sreepada Rao.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9phropathie_associ%C3%A9e_au_VIH</t>
+          <t>Néphropathie_associée_au_VIH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9phropathie_associ%C3%A9e_au_VIH</t>
+          <t>Néphropathie_associée_au_VIH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,10 +586,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clinique
-Comme tous les syndromes glomérulaires, la HIVAN peut associé une protéinurie augmentée et/ou une hématurie. 
-Examens complémentaires
-La biopsie rénale, lorsqu'elle est réalisée, peut montrer un aspect de lésion dominante est glomérulaire avec un aspect de hyalinose focale et segmentaire[2].
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les syndromes glomérulaires, la HIVAN peut associé une protéinurie augmentée et/ou une hématurie. 
 </t>
         </is>
       </c>
@@ -584,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N%C3%A9phropathie_associ%C3%A9e_au_VIH</t>
+          <t>Néphropathie_associée_au_VIH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,10 +618,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Traitement</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Examens complémentaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La biopsie rénale, lorsqu'elle est réalisée, peut montrer un aspect de lésion dominante est glomérulaire avec un aspect de hyalinose focale et segmentaire.
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -610,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N%C3%A9phropathie_associ%C3%A9e_au_VIH</t>
+          <t>Néphropathie_associée_au_VIH</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -625,12 +655,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Néphropathie_associée_au_VIH</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9phropathie_associ%C3%A9e_au_VIH</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En l'absence de traitement, elle évolue en insuffisance rénale terminale[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En l'absence de traitement, elle évolue en insuffisance rénale terminale.
 </t>
         </is>
       </c>
